--- a/Symphony/2021/June/All Details/24.06.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/June/All Details/24.06.2021/MC Bank Statement June-2021.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="270">
   <si>
     <t>Date</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>24.03.2021</t>
+  </si>
+  <si>
+    <t>singra</t>
   </si>
 </sst>
 </file>
@@ -3273,6 +3276,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3300,22 +3315,10 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6425,67 +6428,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="364" t="s">
+      <c r="A1" s="368" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="364"/>
-      <c r="C1" s="364"/>
-      <c r="D1" s="364"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="364"/>
-      <c r="G1" s="364"/>
-      <c r="H1" s="364"/>
-      <c r="I1" s="364"/>
-      <c r="J1" s="364"/>
-      <c r="K1" s="364"/>
-      <c r="L1" s="364"/>
-      <c r="M1" s="364"/>
-      <c r="N1" s="364"/>
-      <c r="O1" s="364"/>
-      <c r="P1" s="364"/>
-      <c r="Q1" s="364"/>
+      <c r="B1" s="368"/>
+      <c r="C1" s="368"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="368"/>
+      <c r="F1" s="368"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
+      <c r="M1" s="368"/>
+      <c r="N1" s="368"/>
+      <c r="O1" s="368"/>
+      <c r="P1" s="368"/>
+      <c r="Q1" s="368"/>
     </row>
     <row r="2" spans="1:24" s="119" customFormat="1" ht="18">
-      <c r="A2" s="365" t="s">
+      <c r="A2" s="369" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="365"/>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="365"/>
-      <c r="F2" s="365"/>
-      <c r="G2" s="365"/>
-      <c r="H2" s="365"/>
-      <c r="I2" s="365"/>
-      <c r="J2" s="365"/>
-      <c r="K2" s="365"/>
-      <c r="L2" s="365"/>
-      <c r="M2" s="365"/>
-      <c r="N2" s="365"/>
-      <c r="O2" s="365"/>
-      <c r="P2" s="365"/>
-      <c r="Q2" s="365"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="369"/>
+      <c r="O2" s="369"/>
+      <c r="P2" s="369"/>
+      <c r="Q2" s="369"/>
     </row>
     <row r="3" spans="1:24" s="120" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="370" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="367"/>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
-      <c r="J3" s="367"/>
-      <c r="K3" s="367"/>
-      <c r="L3" s="367"/>
-      <c r="M3" s="367"/>
-      <c r="N3" s="367"/>
-      <c r="O3" s="367"/>
-      <c r="P3" s="367"/>
-      <c r="Q3" s="368"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="371"/>
+      <c r="H3" s="371"/>
+      <c r="I3" s="371"/>
+      <c r="J3" s="371"/>
+      <c r="K3" s="371"/>
+      <c r="L3" s="371"/>
+      <c r="M3" s="371"/>
+      <c r="N3" s="371"/>
+      <c r="O3" s="371"/>
+      <c r="P3" s="371"/>
+      <c r="Q3" s="372"/>
       <c r="S3" s="96"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6494,52 +6497,52 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="369" t="s">
+      <c r="A4" s="373" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="371" t="s">
+      <c r="B4" s="375" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="373" t="s">
+      <c r="C4" s="364" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="373" t="s">
+      <c r="D4" s="364" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="373" t="s">
+      <c r="E4" s="364" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="373" t="s">
+      <c r="F4" s="364" t="s">
         <v>261</v>
       </c>
-      <c r="G4" s="373" t="s">
+      <c r="G4" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="373" t="s">
+      <c r="H4" s="364" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="373" t="s">
+      <c r="I4" s="364" t="s">
         <v>256</v>
       </c>
-      <c r="J4" s="373" t="s">
+      <c r="J4" s="364" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="373" t="s">
+      <c r="K4" s="364" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="373" t="s">
+      <c r="L4" s="364" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="373" t="s">
+      <c r="M4" s="364" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="373" t="s">
+      <c r="N4" s="364" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="377" t="s">
+      <c r="O4" s="366" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="375" t="s">
+      <c r="P4" s="377" t="s">
         <v>108</v>
       </c>
       <c r="Q4" s="193" t="s">
@@ -6552,22 +6555,22 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="370"/>
-      <c r="B5" s="372"/>
-      <c r="C5" s="374"/>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="374"/>
-      <c r="G5" s="374"/>
-      <c r="H5" s="374"/>
-      <c r="I5" s="374"/>
-      <c r="J5" s="374"/>
-      <c r="K5" s="374"/>
-      <c r="L5" s="374"/>
-      <c r="M5" s="374"/>
-      <c r="N5" s="374"/>
-      <c r="O5" s="378"/>
-      <c r="P5" s="376"/>
+      <c r="A5" s="374"/>
+      <c r="B5" s="376"/>
+      <c r="C5" s="365"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="365"/>
+      <c r="F5" s="365"/>
+      <c r="G5" s="365"/>
+      <c r="H5" s="365"/>
+      <c r="I5" s="365"/>
+      <c r="J5" s="365"/>
+      <c r="K5" s="365"/>
+      <c r="L5" s="365"/>
+      <c r="M5" s="365"/>
+      <c r="N5" s="365"/>
+      <c r="O5" s="367"/>
+      <c r="P5" s="378"/>
       <c r="Q5" s="194" t="s">
         <v>67</v>
       </c>
@@ -9734,8 +9737,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9753,6 +9754,8 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9766,8 +9769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A113" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12408,20 +12411,20 @@
     </row>
     <row r="25" spans="1:97">
       <c r="A25" s="258" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B25" s="94">
         <v>361370</v>
       </c>
       <c r="C25" s="94">
-        <v>576960</v>
+        <v>526960</v>
       </c>
       <c r="D25" s="94">
         <v>1240</v>
       </c>
       <c r="E25" s="94">
         <f t="shared" si="0"/>
-        <v>578200</v>
+        <v>528200</v>
       </c>
       <c r="F25" s="260"/>
       <c r="G25" s="216"/>
@@ -13240,7 +13243,7 @@
       </c>
       <c r="C33" s="277">
         <f>SUM(C5:C32)</f>
-        <v>9867399</v>
+        <v>9817399</v>
       </c>
       <c r="D33" s="277">
         <f>SUM(D5:D32)</f>
@@ -13248,11 +13251,11 @@
       </c>
       <c r="E33" s="277">
         <f>SUM(E5:E32)</f>
-        <v>9908782</v>
+        <v>9858782</v>
       </c>
       <c r="F33" s="278">
         <f>B33-E33</f>
-        <v>-288462</v>
+        <v>-238462</v>
       </c>
       <c r="G33" s="212"/>
       <c r="H33" s="212"/>
@@ -18906,11 +18909,19 @@
       <c r="CS81" s="211"/>
     </row>
     <row r="82" spans="1:97">
-      <c r="A82" s="322"/>
-      <c r="B82" s="103"/>
+      <c r="A82" s="322" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" s="103" t="s">
+        <v>175</v>
+      </c>
       <c r="C82" s="173"/>
-      <c r="D82" s="305"/>
-      <c r="E82" s="254"/>
+      <c r="D82" s="305">
+        <v>50000</v>
+      </c>
+      <c r="E82" s="254" t="s">
+        <v>209</v>
+      </c>
       <c r="F82" s="207"/>
       <c r="G82" s="211"/>
       <c r="H82" s="279" t="s">
@@ -22857,7 +22868,7 @@
       <c r="C119" s="392"/>
       <c r="D119" s="308">
         <f>SUM(D37:D118)</f>
-        <v>1934459</v>
+        <v>1984459</v>
       </c>
       <c r="E119" s="299"/>
       <c r="F119" s="211"/>
@@ -23064,7 +23075,7 @@
       <c r="C121" s="380"/>
       <c r="D121" s="308">
         <f>D119+M121</f>
-        <v>1934459</v>
+        <v>1984459</v>
       </c>
       <c r="E121" s="299"/>
       <c r="F121" s="211"/>
@@ -33080,8 +33091,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection sqref="A1:E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33195,12 +33206,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="68">
-        <v>5419228.1617000001</v>
+        <v>5219227.9300000006</v>
       </c>
       <c r="F5" s="60"/>
-      <c r="G5" s="53">
-        <v>200000</v>
-      </c>
+      <c r="G5" s="53"/>
       <c r="H5" s="49" t="s">
         <v>268</v>
       </c>
@@ -33275,7 +33284,7 @@
         <v>95</v>
       </c>
       <c r="E7" s="166">
-        <v>59583</v>
+        <v>267583.23169999942</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="53"/>
@@ -33349,7 +33358,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="68">
-        <v>1934459</v>
+        <v>1984459</v>
       </c>
       <c r="F9" s="5"/>
       <c r="H9" s="5"/>
@@ -33422,7 +33431,7 @@
         <v>251</v>
       </c>
       <c r="E11" s="69">
-        <v>298560</v>
+        <v>240560</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>75</v>
